--- a/Week One/Attendance Tracker.xlsx
+++ b/Week One/Attendance Tracker.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,14 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ffa828adb55a9dfa/Documents/GitHub/Poke-Mart-Excel/Week One/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="14_{4D7DA486-6CBC-4C11-B8B6-C75FA3182967}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="14_{7916812B-F8AD-456E-9432-0A6F1398EA54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28690" yWindow="-110" windowWidth="38620" windowHeight="15700"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Attendance Tracker" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -178,19 +191,19 @@
     <t>Worst Attendance</t>
   </si>
   <si>
-    <t>Aurie Wolton</t>
-  </si>
-  <si>
-    <t>Gabie Marnane</t>
-  </si>
-  <si>
     <t>Attendance Percentage</t>
+  </si>
+  <si>
+    <t>Gabie Marnane, Slade Colton</t>
+  </si>
+  <si>
+    <t>Aurie Wolton, Georgy Kencott</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -699,7 +712,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="16" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1075,11 +1088,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1124,7 +1137,7 @@
         <v>49</v>
       </c>
       <c r="AC3" s="8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.35">
@@ -3086,7 +3099,7 @@
         <v>16</v>
       </c>
       <c r="C30" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="31" spans="1:29" x14ac:dyDescent="0.35">
